--- a/animaldt.xlsx
+++ b/animaldt.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takis\Desktop\arxeia delft\SDSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorgos Dimopoulos\Desktop\GitHub\GEO1005_2017_Team9_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{E28D604A-732A-4525-B294-BA526D2CD06D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>Californian sea lion</t>
   </si>
@@ -360,12 +360,15 @@
   </si>
   <si>
     <t>Panic behaviour</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,24 +722,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD40028-A0B6-427A-888E-45AA4CD90605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.5546875" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -762,7 +765,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -776,7 +779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -790,7 +793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -806,8 +809,11 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -824,7 +830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -841,7 +847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -855,7 +861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -872,7 +878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -889,7 +895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -906,7 +912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -923,7 +929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -934,7 +940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -951,7 +957,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -968,7 +974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -985,7 +991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1232,12 +1238,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1268,12 +1274,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>

--- a/animaldt.xlsx
+++ b/animaldt.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorgos Dimopoulos\Desktop\GitHub\GEO1005_2017_Team9_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takis\Documents\GitHub\GEO1005_2017_Team9_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>Californian sea lion</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Asian Elephant</t>
   </si>
   <si>
-    <t>Banteng</t>
-  </si>
-  <si>
     <t>Asian Lion</t>
   </si>
   <si>
@@ -188,12 +185,6 @@
     <t>dry grasslands</t>
   </si>
   <si>
-    <t>grass , vegetation</t>
-  </si>
-  <si>
-    <t>open areas , forests</t>
-  </si>
-  <si>
     <t>1500-3000</t>
   </si>
   <si>
@@ -363,12 +354,39 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>Habitat area</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>hours moving</t>
+  </si>
+  <si>
+    <t>active during</t>
+  </si>
+  <si>
+    <t>nocturnal</t>
+  </si>
+  <si>
+    <t>diurnal</t>
+  </si>
+  <si>
+    <t>run,attack</t>
+  </si>
+  <si>
+    <t>Finding nest</t>
+  </si>
+  <si>
+    <t>camouflage,run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,78 +740,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.5546875" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="13" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
       <c r="D3" s="1">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -801,19 +841,25 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -821,16 +867,22 @@
         <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -841,13 +893,19 @@
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -855,30 +913,39 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
       </c>
       <c r="B8">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -886,411 +953,562 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>51</v>
       </c>
       <c r="B11">
         <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1">
-        <v>135</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>96</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>64</v>
+      <c r="D17" s="1">
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
-        <v>20</v>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1">
+        <v>250</v>
+      </c>
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1">
-        <v>250</v>
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>65</v>
+      </c>
       <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
         <v>78</v>
       </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
       <c r="G24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1">
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
       <c r="D26" s="1">
+        <v>700</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <v>275</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1">
-        <v>700</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1">
-        <v>275</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
       <c r="G28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
       <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>92</v>
+      <c r="B31">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32">
-        <v>64</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
       <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
         <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
       </c>
       <c r="G34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35">
-        <v>51</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>100</v>
+      <c r="D36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
